--- a/Product-backlog-template.xlsx
+++ b/Product-backlog-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>Week 9</t>
   </si>
@@ -97,9 +97,6 @@
     <t>GUI for login form</t>
   </si>
   <si>
-    <t>Snake logic</t>
-  </si>
-  <si>
     <t>Week 8</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Create a repository for the project on GitHub</t>
   </si>
   <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -130,12 +124,6 @@
     <t>the game will have one prey</t>
   </si>
   <si>
-    <t>and prey look like as an apple</t>
-  </si>
-  <si>
-    <t>and its colour should be green and every time its position should be different</t>
-  </si>
-  <si>
     <t>arrow keys should be used to control the snake</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>and a message should be pop-up "Game-over"</t>
   </si>
   <si>
-    <t>every time when snake eat apple its length should be increase</t>
-  </si>
-  <si>
     <t>with the passage of eating ,score should be increase</t>
   </si>
   <si>
@@ -197,6 +182,21 @@
   </si>
   <si>
     <t>:Game board</t>
+  </si>
+  <si>
+    <t>and prey look like as a smily face</t>
+  </si>
+  <si>
+    <t>and its colour is yellow and every time its position should be different</t>
+  </si>
+  <si>
+    <t>every time when snake eat smily its length should be increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building GUI for player  </t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
 </sst>
 </file>
@@ -359,17 +359,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -704,40 +704,40 @@
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="34"/>
+      <c r="B2" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="37"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -783,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -807,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -815,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -823,19 +823,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="8"/>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="8"/>
       <c r="D17" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -851,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -859,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="28.8">
@@ -867,7 +867,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="28.8">
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="3:4">
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="3:4">
@@ -899,7 +899,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="3:4">
@@ -907,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:4">
@@ -915,7 +915,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -923,7 +923,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -974,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -987,10 +987,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1088,14 +1088,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="8">
         <v>2</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="34">
         <v>1</v>
       </c>
       <c r="G9" s="6"/>
@@ -1109,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="37">
+      <c r="G10" s="35">
         <v>1</v>
       </c>
       <c r="H10" s="6"/>
@@ -1129,16 +1129,14 @@
       <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="35">
         <v>1</v>
       </c>
       <c r="H11" s="6"/>
@@ -1150,8 +1148,8 @@
       <c r="A12" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>56</v>
+      <c r="B12" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
@@ -1159,7 +1157,7 @@
       <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="35">
         <v>1</v>
       </c>
       <c r="H12" s="6"/>
@@ -1171,8 +1169,8 @@
       <c r="A13" s="12">
         <v>5.2</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>57</v>
+      <c r="B13" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>24</v>
@@ -1180,7 +1178,7 @@
       <c r="E13" s="8">
         <v>3</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="35">
         <v>1</v>
       </c>
       <c r="H13" s="6"/>
@@ -1192,14 +1190,14 @@
       <c r="A14" s="12">
         <v>5.3</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>58</v>
+      <c r="B14" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="35">
         <v>1</v>
       </c>
       <c r="H14" s="6"/>
@@ -1210,11 +1208,14 @@
     <row r="15" spans="1:12">
       <c r="A15" s="12"/>
       <c r="B15" s="6"/>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="35">
         <v>1</v>
       </c>
       <c r="H15" s="6"/>
@@ -1225,7 +1226,9 @@
     <row r="16" spans="1:12">
       <c r="A16" s="12"/>
       <c r="B16" s="6"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1235,7 +1238,9 @@
     <row r="17" spans="1:11">
       <c r="A17" s="12"/>
       <c r="B17" s="6"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1243,12 +1248,10 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="11">
-        <v>3.2</v>
-      </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1257,12 +1260,10 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1282,11 +1283,18 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>3.21</v>
+      </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:11">
